--- a/Spearman A3.xlsx
+++ b/Spearman A3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emily/GitHub/cusw-spr19-levenson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B6BBBA-650D-F645-ADC6-FFD06AD2E63A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED42328-3487-E34F-A99D-C1423AF6B058}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="460" windowWidth="14500" windowHeight="16080" xr2:uid="{E6C88BCC-5569-8D49-9331-3008389D458F}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="14500" windowHeight="16080" xr2:uid="{E6C88BCC-5569-8D49-9331-3008389D458F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +81,7 @@
     <t>r</t>
   </si>
   <si>
-    <t>mildly correlated</t>
+    <t>somewhat negatively correlated</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4668D-3DBC-AA4C-8B83-B9E85CA7D043}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
